--- a/Preparation.xlsx
+++ b/Preparation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sampo\OneDrive\Desktop\Interview Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E77C3F6-30F7-4CEF-87E4-8C2E8C7E0836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA1F717-3CEE-4139-8ACC-B097B10552BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{3BFCEC58-9632-432F-9955-876F60288C63}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" firstSheet="2" activeTab="4" xr2:uid="{3BFCEC58-9632-432F-9955-876F60288C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Preparation &amp; Pain Areas" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Selenium Interview Questions'!$A$1:$D$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1779,15 +1778,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1805,6 +1795,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2254,7 +2253,7 @@
       <c r="B13" t="s">
         <v>351</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="32" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="24">
@@ -2268,7 +2267,7 @@
       <c r="B14" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="24">
         <v>0.2</v>
       </c>
@@ -2280,7 +2279,7 @@
       <c r="B15" t="s">
         <v>353</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="24">
         <v>0.8</v>
       </c>
@@ -2292,7 +2291,7 @@
       <c r="B16" t="s">
         <v>354</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="24">
         <v>0.5</v>
       </c>
@@ -2304,7 +2303,7 @@
       <c r="B17" t="s">
         <v>355</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="24">
         <v>0.5</v>
       </c>
@@ -2316,7 +2315,7 @@
       <c r="B18" t="s">
         <v>356</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="24">
         <v>0.5</v>
       </c>
@@ -2325,7 +2324,7 @@
       <c r="B19" t="s">
         <v>366</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2335,7 +2334,7 @@
       <c r="B20" t="s">
         <v>357</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="24">
         <v>0.2</v>
       </c>
@@ -2347,7 +2346,7 @@
       <c r="B21" t="s">
         <v>358</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="31" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="24">
@@ -2361,7 +2360,7 @@
       <c r="B22" t="s">
         <v>359</v>
       </c>
-      <c r="C22" s="25"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="24">
         <v>0.5</v>
       </c>
@@ -2373,7 +2372,7 @@
       <c r="B23" t="s">
         <v>360</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="24">
         <v>0.5</v>
       </c>
@@ -2385,7 +2384,7 @@
       <c r="B24" t="s">
         <v>361</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="24">
         <v>0.5</v>
       </c>
@@ -2397,7 +2396,7 @@
       <c r="B25" t="s">
         <v>362</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="24">
         <v>0.1</v>
       </c>
@@ -2409,7 +2408,7 @@
       <c r="B26" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="25"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="24">
         <v>0.5</v>
       </c>
@@ -2421,7 +2420,7 @@
       <c r="B27" t="s">
         <v>364</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="24">
         <v>0.6</v>
       </c>
@@ -2433,7 +2432,7 @@
       <c r="B28" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="24">
         <v>0.4</v>
       </c>
@@ -2464,35 +2463,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226FDE08-5D47-4894-921B-6DDC127C391C}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="77.36328125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="77.36328125" style="26" customWidth="1"/>
     <col min="3" max="3" width="8.36328125" style="5" customWidth="1"/>
     <col min="4" max="4" width="112.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="26" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>177</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2506,13 +2505,13 @@
       <c r="A3" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>178</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="26" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2520,7 +2519,7 @@
       <c r="A4" s="5">
         <v>5</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>180</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -2534,7 +2533,7 @@
       <c r="A5" s="5">
         <v>7</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="28" t="s">
         <v>183</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -2548,13 +2547,13 @@
       <c r="A6" s="5">
         <v>9</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>184</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="26" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2562,10 +2561,10 @@
       <c r="A7" s="5">
         <v>11</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="30" t="s">
         <v>311</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2576,7 +2575,7 @@
       <c r="A8" s="5">
         <v>12</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>109</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3637,7 +3636,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>84</v>
       </c>
       <c r="B2" t="s">
@@ -3651,7 +3650,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
+      <c r="A3" s="33"/>
       <c r="B3" t="s">
         <v>86</v>
       </c>
@@ -3663,7 +3662,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="A4" s="33"/>
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -3675,7 +3674,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="A5" s="33"/>
       <c r="B5" t="s">
         <v>88</v>
       </c>
@@ -3687,7 +3686,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="A6" s="33"/>
       <c r="B6" t="s">
         <v>89</v>
       </c>
@@ -3699,7 +3698,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
+      <c r="A7" s="33"/>
       <c r="B7" t="s">
         <v>90</v>
       </c>
@@ -3711,7 +3710,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="33"/>
       <c r="B8" t="s">
         <v>91</v>
       </c>
@@ -3723,7 +3722,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+      <c r="A9" s="33"/>
       <c r="B9" t="s">
         <v>92</v>
       </c>
@@ -3746,7 +3745,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="33"/>
       <c r="B11" t="s">
         <v>93</v>
       </c>
@@ -3758,7 +3757,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="33"/>
       <c r="B12" t="s">
         <v>94</v>
       </c>
@@ -3770,7 +3769,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="33"/>
       <c r="B13" t="s">
         <v>95</v>
       </c>
@@ -3782,7 +3781,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="33"/>
       <c r="B14" t="s">
         <v>96</v>
       </c>
@@ -3791,7 +3790,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="33"/>
       <c r="B15" t="s">
         <v>97</v>
       </c>
@@ -3803,7 +3802,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="33"/>
       <c r="B16" t="s">
         <v>98</v>
       </c>
@@ -3815,7 +3814,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="33"/>
       <c r="B17" t="s">
         <v>103</v>
       </c>
@@ -3827,7 +3826,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="A18" s="33"/>
       <c r="B18" t="s">
         <v>99</v>
       </c>
@@ -4227,8 +4226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D3B546-47E8-4D86-9F40-120DBF19DBF9}">
   <dimension ref="D3:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
